--- a/data/trans_camb/P20-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P20-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 3,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 2,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,79; -0,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 5,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 6,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 6,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 3,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 3,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 2,32</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,8%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,87; 270,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,43; 283,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 46,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,89; 129,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,35; 135,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,24; 132,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; 114,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; 121,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,94; 73,35</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 3,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,78; 1,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 3,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 6,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,12; 2,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,42; -0,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,0; 4,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,79; 1,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,55; 1,23</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,99%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,1; 140,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,26; 49,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,07; 155,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,35; 64,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,46; 27,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,69; 0,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 67,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,22; 20,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,03; 19,88</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 5,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 2,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 3,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 5,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 5,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 3,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,05; 4,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 3,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 2,95</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,51%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,08%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,36; 258,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,43; 140,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,3; 169,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 148,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 147,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,71; 104,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,45; 139,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 105,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,96; 86,08</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 4,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 1,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 3,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 6,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 2,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,31; 1,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 4,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 1,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 1,86</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,05%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,02%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,68%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,23%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,53%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,42%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,88; 144,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,43; 52,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,64; 125,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 159,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,69; 57,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,72; 40,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 111,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,17; 40,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,25; 51,65</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 4,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 5,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 6,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; 4,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,06; 2,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; 1,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 3,13</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 2,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 3,2</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,35%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,24%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,81%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,92%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,2; 123,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,39; 155,49</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,42; 204,65</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,75; 91,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,49; 47,89</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,7; 39,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,22; 69,58</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,47; 53,52</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,95; 70,48</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,8</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,67; 6,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 4,77</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 4,85</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 4,47</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,37; 3,06</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,84; 0,06</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 4,49</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 2,8</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,05; 1,41</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,96%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,14%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,53%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,82%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,99%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,32; 102,04</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,61; 70,56</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,22; 74,51</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,29; 59,66</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,88; 40,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,0; 0,38</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 57,94</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,23; 37,0</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,07; 17,68</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 3,12</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 1,69</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,66; 2,8</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 3,63</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 1,65</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 0,02</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 2,94</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 1,39</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 1,03</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,55%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,33%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,82%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,82%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,1%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,44; 84,56</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,04; 45,94</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,09; 78,06</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,11; 54,14</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,37; 24,42</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,7; 0,92</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,64; 53,73</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,09; 25,84</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,56; 19,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,7</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,79; -0,47</t>
+          <t>-3,75; -0,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 6,3</t>
+          <t>-3,64; 6,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,32</t>
+          <t>-3,05; 1,77</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-82,56%</t>
+          <t>-82,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-8,8%</t>
+          <t>-17,48%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 46,1</t>
+          <t>-100,0; 51,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,24; 132,51</t>
+          <t>-49,61; 129,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-60,94; 73,35</t>
+          <t>-63,57; 56,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-4,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-1,56</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 3,76</t>
+          <t>-2,15; 4,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,42; -0,06</t>
+          <t>-8,38; -0,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 1,23</t>
+          <t>-3,97; 0,83</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-30,48%</t>
+          <t>-38,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-15,99%</t>
+          <t>-21,73%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,07; 155,22</t>
+          <t>-58,0; 165,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,69; 0,88</t>
+          <t>-63,86; -9,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,03; 19,88</t>
+          <t>-49,08; 14,41</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,4</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,44</t>
+          <t>-0,99; 3,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 3,99</t>
+          <t>-0,72; 3,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,95</t>
+          <t>-0,19; 3,06</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>42,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>32,47%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>35,92%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,3; 169,96</t>
+          <t>-32,12; 177,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 104,67</t>
+          <t>-11,91; 105,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 86,08</t>
+          <t>-4,97; 89,25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,49</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,8</t>
+          <t>-3,79; 2,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 1,34</t>
+          <t>-3,46; 1,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,86</t>
+          <t>-2,86; 1,13</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>-1,92%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-16,68%</t>
+          <t>-18,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>-10,61%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 125,96</t>
+          <t>-66,85; 87,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,72; 40,54</t>
+          <t>-49,85; 39,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 51,65</t>
+          <t>-50,93; 29,25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,27</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,25; 6,37</t>
+          <t>0,28; 6,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 1,63</t>
+          <t>-3,94; 1,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,2</t>
+          <t>-0,92; 3,22</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>65,24%</t>
+          <t>65,98%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-13,31%</t>
+          <t>-12,7%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>22,84%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2,42; 204,65</t>
+          <t>2,73; 203,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-45,7; 39,32</t>
+          <t>-45,49; 40,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 70,48</t>
+          <t>-14,23; 71,13</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-2,33</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 6,89</t>
+          <t>-3,06; 6,3</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 4,77</t>
+          <t>-2,0; 7,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,85</t>
+          <t>-2,01; 5,67</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 4,47</t>
+          <t>-3,22; 5,07</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 3,06</t>
+          <t>-5,13; 3,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 0,06</t>
+          <t>-9,64; -1,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,49</t>
+          <t>-1,72; 4,63</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,8</t>
+          <t>-2,15; 4,27</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,41</t>
+          <t>-6,33; 0,19</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>40,21%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-2,53%</t>
+          <t>-9,74%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-26,82%</t>
+          <t>-57,17%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-8,99%</t>
+          <t>-28,31%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 102,04</t>
+          <t>-33,48; 112,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 70,56</t>
+          <t>-20,59; 135,58</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 74,51</t>
+          <t>-21,58; 99,19</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 59,66</t>
+          <t>-31,77; 77,47</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-31,88; 40,12</t>
+          <t>-48,78; 51,08</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-51,0; 0,38</t>
+          <t>-85,75; -26,09</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 57,94</t>
+          <t>-17,95; 68,57</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-18,23; 37,0</t>
+          <t>-21,88; 65,01</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-30,07; 17,68</t>
+          <t>-63,12; 1,7</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,5</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,12</t>
+          <t>-0,64; 11,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 1,69</t>
+          <t>-5,98; 3,74</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,8</t>
+          <t>-4,0; 6,02</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,63</t>
+          <t>-3,24; 6,62</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,65</t>
+          <t>-4,17; 5,5</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 0,02</t>
+          <t>-4,44; 3,33</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,94</t>
+          <t>-1,55; 6,68</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,39</t>
+          <t>-3,61; 3,44</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,03</t>
+          <t>-2,82; 3,36</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>55,75%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>-8,81%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-15,82%</t>
+          <t>-2,32%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>-1,56%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-9,63; 186,32</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-49,41; 58,47</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-30,95; 94,56</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-26,65; 98,66</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-37,0; 74,86</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-34,92; 46,09</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-13,91; 84,92</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-31,69; 46,42</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-23,46; 43,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 3,12</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,33; 1,69</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,51</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 3,63</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 1,65</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; -0,25</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 2,94</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 1,39</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 0,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>47,55%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>16,49%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>31,47%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>28,82%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-19,7%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>35,52%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>8,88%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-1,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>17,44; 84,56</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-7,04; 45,94</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>14,09; 78,06</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 67,68</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>11,11; 54,14</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-11,37; 24,42</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-29,7; 0,92</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-35,66; -3,09</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>17,64; 53,73</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-5,09; 25,84</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-9,56; 19,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-18,36; 14,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P20-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,3</t>
+          <t>-0,99; 3,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,95</t>
+          <t>-1,21; 2,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; -0,45</t>
+          <t>-3,32; -0,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 5,88</t>
+          <t>-1,33; 5,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 6,06</t>
+          <t>-1,17; 6,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 6,2</t>
+          <t>-3,11; 6,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 3,57</t>
+          <t>-0,34; 3,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,8</t>
+          <t>-0,27; 3,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,77</t>
+          <t>-2,67; 2,08</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,87; 270,69</t>
+          <t>-34,76; 279,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,43; 283,97</t>
+          <t>-45,35; 256,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 51,65</t>
+          <t>-100,0; 94,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 129,25</t>
+          <t>-17,71; 146,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 135,58</t>
+          <t>-17,71; 146,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-49,61; 129,97</t>
+          <t>-45,77; 117,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 114,56</t>
+          <t>-7,77; 130,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 121,92</t>
+          <t>-6,45; 120,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-63,57; 56,74</t>
+          <t>-57,52; 68,13</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,33</t>
+          <t>-0,74; 3,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 1,04</t>
+          <t>-2,63; 1,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 4,06</t>
+          <t>-1,86; 3,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 6,51</t>
+          <t>-1,4; 6,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 2,61</t>
+          <t>-4,77; 2,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,38; -0,82</t>
+          <t>-9,19; -1,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 4,32</t>
+          <t>-0,2; 4,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 1,23</t>
+          <t>-2,6; 1,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 0,83</t>
+          <t>-3,87; 0,71</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,1; 140,4</t>
+          <t>-18,9; 147,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,26; 49,6</t>
+          <t>-65,76; 53,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-58,0; 165,31</t>
+          <t>-54,18; 156,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 64,22</t>
+          <t>-10,57; 64,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,46; 27,37</t>
+          <t>-34,97; 30,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-63,86; -9,06</t>
+          <t>-66,28; -8,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 67,07</t>
+          <t>-2,49; 67,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,22; 20,1</t>
+          <t>-32,25; 22,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-49,08; 14,41</t>
+          <t>-47,6; 11,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,13</t>
+          <t>0,37; 5,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,61</t>
+          <t>-1,37; 2,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 3,65</t>
+          <t>-1,08; 3,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 5,7</t>
+          <t>0,47; 5,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 5,57</t>
+          <t>0,25; 5,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 3,98</t>
+          <t>-0,84; 4,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,63</t>
+          <t>1,12; 4,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 3,33</t>
+          <t>0,01; 3,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 3,06</t>
+          <t>-0,33; 2,99</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,36; 258,51</t>
+          <t>6,5; 260,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,43; 140,03</t>
+          <t>-39,01; 145,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,12; 177,49</t>
+          <t>-31,71; 171,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,01; 148,77</t>
+          <t>7,43; 151,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 147,77</t>
+          <t>2,0; 153,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 105,37</t>
+          <t>-13,94; 115,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,45; 139,61</t>
+          <t>22,71; 148,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 105,44</t>
+          <t>-0,9; 102,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 89,25</t>
+          <t>-7,46; 95,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 4,06</t>
+          <t>-1,49; 3,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,35</t>
+          <t>-3,36; 1,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 2,87</t>
+          <t>-3,67; 2,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 6,33</t>
+          <t>0,13; 6,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 2,31</t>
+          <t>-2,94; 2,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 1,28</t>
+          <t>-3,32; 1,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 4,15</t>
+          <t>0,23; 4,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,44</t>
+          <t>-2,29; 1,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,13</t>
+          <t>-2,65; 1,22</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 144,88</t>
+          <t>-28,82; 118,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-55,43; 52,38</t>
+          <t>-57,44; 54,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-66,85; 87,74</t>
+          <t>-61,11; 81,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 159,6</t>
+          <t>-3,01; 165,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,69; 57,97</t>
+          <t>-44,18; 66,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,85; 39,37</t>
+          <t>-49,34; 29,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,41; 111,01</t>
+          <t>3,06; 107,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 40,25</t>
+          <t>-39,8; 33,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-50,93; 29,25</t>
+          <t>-46,96; 31,38</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 4,6</t>
+          <t>-1,4; 4,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 5,43</t>
+          <t>-0,99; 5,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,28; 6,45</t>
+          <t>0,15; 6,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 4,0</t>
+          <t>-2,82; 3,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,09</t>
+          <t>-4,31; 1,99</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 1,68</t>
+          <t>-3,87; 1,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 3,13</t>
+          <t>-1,33; 3,55</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 2,42</t>
+          <t>-1,78; 2,95</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 3,22</t>
+          <t>-0,89; 3,35</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 123,98</t>
+          <t>-23,36; 145,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 155,49</t>
+          <t>-19,67; 145,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2,73; 203,94</t>
+          <t>0,61; 181,1</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 91,8</t>
+          <t>-37,18; 86,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-53,49; 47,89</t>
+          <t>-52,71; 45,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-45,49; 40,86</t>
+          <t>-44,82; 45,15</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 69,58</t>
+          <t>-19,69; 83,37</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-31,47; 53,52</t>
+          <t>-26,22; 65,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 71,13</t>
+          <t>-14,27; 78,15</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 6,3</t>
+          <t>-2,7; 6,37</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 7,84</t>
+          <t>-1,29; 8,13</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 5,67</t>
+          <t>-2,57; 5,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 5,07</t>
+          <t>-3,39; 4,92</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 3,26</t>
+          <t>-4,94; 3,42</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,64; -1,69</t>
+          <t>-9,6; -1,68</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 4,63</t>
+          <t>-2,13; 4,38</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 4,27</t>
+          <t>-2,06; 4,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 0,19</t>
+          <t>-6,07; 0,6</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-33,48; 112,67</t>
+          <t>-28,37; 110,28</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 135,58</t>
+          <t>-14,46; 144,19</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-21,58; 99,19</t>
+          <t>-23,52; 104,3</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-31,77; 77,47</t>
+          <t>-31,81; 75,53</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-48,78; 51,08</t>
+          <t>-46,77; 55,64</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-85,75; -26,09</t>
+          <t>-87,34; -24,56</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 68,57</t>
+          <t>-22,95; 59,15</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 65,01</t>
+          <t>-21,56; 56,72</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-63,12; 1,7</t>
+          <t>-65,51; 5,88</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 11,81</t>
+          <t>-1,77; 11,16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 3,74</t>
+          <t>-6,06; 4,28</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 6,02</t>
+          <t>-3,99; 5,69</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 6,62</t>
+          <t>-3,48; 6,03</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 5,5</t>
+          <t>-4,5; 5,1</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 3,33</t>
+          <t>-4,67; 3,44</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 6,68</t>
+          <t>-0,8; 7,21</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,44</t>
+          <t>-4,1; 3,4</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 3,36</t>
+          <t>-2,8; 3,27</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 186,32</t>
+          <t>-16,56; 173,98</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-49,41; 58,47</t>
+          <t>-48,4; 64,72</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-30,95; 94,56</t>
+          <t>-30,71; 86,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-26,65; 98,66</t>
+          <t>-28,62; 83,0</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 74,86</t>
+          <t>-36,23; 68,86</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-34,92; 46,09</t>
+          <t>-35,48; 48,15</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 84,92</t>
+          <t>-7,49; 97,54</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-31,69; 46,42</t>
+          <t>-35,71; 43,48</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-23,46; 43,73</t>
+          <t>-24,17; 44,44</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,12</t>
+          <t>0,85; 3,08</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 1,69</t>
+          <t>-0,37; 1,74</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,51</t>
+          <t>0,06; 2,46</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,63</t>
+          <t>0,75; 3,46</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,65</t>
+          <t>-0,9; 1,71</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,86; -0,25</t>
+          <t>-2,82; -0,18</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,94</t>
+          <t>1,24; 2,92</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,39</t>
+          <t>-0,29; 1,42</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,76</t>
+          <t>-1,03; 0,79</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>17,44; 84,56</t>
+          <t>18,03; 85,72</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 45,94</t>
+          <t>-8,09; 47,99</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>0,4; 67,68</t>
+          <t>2,06; 66,53</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>11,11; 54,14</t>
+          <t>9,42; 51,69</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 24,42</t>
+          <t>-11,35; 25,69</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-35,66; -3,09</t>
+          <t>-35,19; -2,68</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>17,64; 53,73</t>
+          <t>19,84; 54,66</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 25,84</t>
+          <t>-4,76; 27,01</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 14,02</t>
+          <t>-16,12; 14,32</t>
         </is>
       </c>
     </row>
